--- a/DB기획/밸런스DB데이터.xlsx
+++ b/DB기획/밸런스DB데이터.xlsx
@@ -8,6 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
+    <sheet name="BuildingFunction" sheetId="2" r:id="rId2"/>
+    <sheet name="BuildingView" sheetId="4" r:id="rId3"/>
+    <sheet name="Resource" sheetId="3" r:id="rId4"/>
+    <sheet name="Maintain" sheetId="5" r:id="rId5"/>
+    <sheet name="Terrain" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="140">
   <si>
     <t>building_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>structure/caste.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>병사를 훈련시킬 수 있다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +147,442 @@
   </si>
   <si>
     <t>일반인의 음식이 되는 빵을 생성한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure/horse_ranch.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵을 볼 수 있게 해준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lack_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말목장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대인구수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대인구수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가용인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동계산이 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가용인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈곤인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동계산이 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈곤인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목의 id니 비소모성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매물품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대인구수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매물품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintain_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사를 제외한 인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반인구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈곤인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit/soldier.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/money.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/meat.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/bread.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/happiness.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/sword.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/max_pop.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/pop.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/job_hunter.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/poor.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/sell_item.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit/man.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrain_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지는 찾아서 파일로 만들어줘야겠네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile/grass.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile/dirt.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile/stone.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile/sand.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure/castle.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +911,7 @@
   <dimension ref="C4:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -511,6 +948,10 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
+      <c r="F5">
+        <f>INDEX(Terrain!$C$4:$E$10,MATCH(E5,Terrain!$D$4:$D$12,0),1)</f>
+        <v>3</v>
+      </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
@@ -525,11 +966,15 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
+      <c r="F6" t="e">
+        <f>INDEX(Terrain!$C$4:$E$10,MATCH(E6,Terrain!$D$4:$D$12,0),1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
@@ -539,6 +984,10 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
+      <c r="F7" t="e">
+        <f>INDEX(Terrain!$C$4:$E$10,MATCH(E7,Terrain!$D$4:$D$12,0),1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
@@ -556,6 +1005,16 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
+      <c r="F8">
+        <f>INDEX(Terrain!$C$4:$E$10,MATCH(E8,Terrain!$D$4:$D$12,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9">
@@ -564,6 +1023,10 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
+      <c r="F9" t="e">
+        <f>INDEX(Terrain!$C$4:$E$10,MATCH(E9,Terrain!$D$4:$D$12,0),1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
@@ -581,6 +1044,10 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
+      <c r="F10">
+        <f>INDEX(Terrain!$C$4:$E$10,MATCH(E10,Terrain!$D$4:$D$12,0),1)</f>
+        <v>1</v>
+      </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
@@ -593,16 +1060,20 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11">
+        <f>INDEX(Terrain!$C$4:$E$10,MATCH(E11,Terrain!$D$4:$D$12,0),1)</f>
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
@@ -610,16 +1081,20 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12">
+        <f>INDEX(Terrain!$C$4:$E$10,MATCH(E12,Terrain!$D$4:$D$12,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -627,4 +1102,944 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:K14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(C5,Building!$D$5:$D$12,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(C6,Building!$D$5:$D$12,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6">
+        <v>-10</v>
+      </c>
+      <c r="H6">
+        <v>-10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(C7,Building!$D$5:$D$12,0),1)</f>
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(C8,Building!$D$5:$D$12,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(C9,Building!$D$5:$D$12,0),1)</f>
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(C10,Building!$D$5:$D$12,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(C11,Building!$D$5:$D$12,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>-30</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(C12,Building!$D$5:$D$12,0),1)</f>
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(C13,Building!$D$5:$D$12,0),1)</f>
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(C14,Building!$D$5:$D$12,0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D6,Building!$D$5:$D$12,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(F6,Resource!$D$5:$D$18,0),1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D7,Building!$D$5:$D$12,0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(F7,Resource!$D$5:$D$18,0),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D8,Building!$D$5:$D$12,0),1)</f>
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(F8,Resource!$D$5:$D$18,0),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D9,Building!$D$5:$D$12,0),1)</f>
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(F9,Resource!$D$5:$D$18,0),1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D10,Building!$D$5:$D$12,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(F10,Resource!$D$5:$D$18,0),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D11,Building!$D$5:$D$12,0),1)</f>
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(F11,Resource!$D$5:$D$18,0),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D12,Building!$D$5:$D$12,0),1)</f>
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(F12,Resource!$D$5:$D$18,0),1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D13,Building!$D$5:$D$12,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(F13,Resource!$D$5:$D$18,0),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D14,Building!$D$5:$D$12,0),1)</f>
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(F14,Resource!$D$5:$D$18,0),1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D15,Building!$D$5:$D$12,0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(F15,Resource!$D$5:$D$18,0),1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16">
+        <f>INDEX(Building!$C$5:$H$12,MATCH(D16,Building!$D$5:$D$12,0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(F16,Resource!$D$5:$D$18,0),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="24.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(D4,Resource!$D$5:$D$18,0),1)</f>
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(F4,Resource!$D$5:$D$18,0),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(D5,Resource!$D$5:$D$18,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(F5,Resource!$D$5:$D$18,0),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(D6,Resource!$D$5:$D$18,0),1)</f>
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6">
+        <f>INDEX(Resource!$C$5:$E$18,MATCH(F6,Resource!$D$5:$D$18,0),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB기획/밸런스DB데이터.xlsx
+++ b/DB기획/밸런스DB데이터.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="142">
   <si>
     <t>building_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,6 +583,14 @@
   </si>
   <si>
     <t>structure/castle.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병사전투력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource/fight.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -910,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1662,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G16"/>
+  <dimension ref="C3:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1871,6 +1879,20 @@
       </c>
       <c r="G16" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1967,6 +1989,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
